--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -14,41 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>0x1C1C</t>
   </si>
   <si>
-    <t>2m</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>4m</t>
-  </si>
-  <si>
     <t>variance</t>
   </si>
   <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>8m</t>
-  </si>
-  <si>
-    <t>10m</t>
+    <t>200cm</t>
+  </si>
+  <si>
+    <t>300cm</t>
+  </si>
+  <si>
+    <t>400cm</t>
+  </si>
+  <si>
+    <t>600cm</t>
+  </si>
+  <si>
+    <t>800cm</t>
+  </si>
+  <si>
+    <t>1000cm</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y = 1.158 * x + 13.29</t>
+  </si>
+  <si>
+    <t>0x2020</t>
+  </si>
+  <si>
+    <t>0x3E3E</t>
+  </si>
+  <si>
+    <t>0x4D4D</t>
+  </si>
+  <si>
+    <t>0x6E6E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,8 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,23 +415,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T3"/>
+  <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -410,45 +450,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
       <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
       <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>5</v>
-      </c>
       <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -482,8 +525,56 @@
       <c r="T3">
         <v>24.3333333333333</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>311.767441860465</v>
+      </c>
+      <c r="E5">
+        <v>49.230343300110697</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>276.23255813953398</v>
+      </c>
+      <c r="E7">
+        <v>3.7065337763012201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>273.55813953488303</v>
+      </c>
+      <c r="E9">
+        <v>9.2048726467331203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>289.97674418604601</v>
+      </c>
+      <c r="E11">
+        <v>12.9756367663344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +539,12 @@
       <c r="E5">
         <v>49.230343300110697</v>
       </c>
+      <c r="J5">
+        <v>502.5</v>
+      </c>
+      <c r="K5">
+        <v>117.455555555556</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -550,6 +556,12 @@
       <c r="E7">
         <v>3.7065337763012201</v>
       </c>
+      <c r="J7">
+        <v>534.73913043478296</v>
+      </c>
+      <c r="K7">
+        <v>43.352657004830903</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -561,6 +573,12 @@
       <c r="E9">
         <v>9.2048726467331203</v>
       </c>
+      <c r="J9">
+        <v>483.95652173912998</v>
+      </c>
+      <c r="K9">
+        <v>619.90917874396098</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -571,6 +589,12 @@
       </c>
       <c r="E11">
         <v>12.9756367663344</v>
+      </c>
+      <c r="J11">
+        <v>471.23913043478302</v>
+      </c>
+      <c r="K11">
+        <v>7.4304347826086898</v>
       </c>
     </row>
   </sheetData>

--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -1,64 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28875" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>200cm</t>
+  </si>
+  <si>
+    <t>300cm</t>
+  </si>
+  <si>
+    <t>400cm</t>
+  </si>
+  <si>
+    <t>500cm</t>
+  </si>
+  <si>
+    <t>600cm</t>
+  </si>
+  <si>
+    <t>800cm</t>
+  </si>
+  <si>
+    <t>1000cm</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
   <si>
     <t>0x1C1C</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
-    <t>200cm</t>
-  </si>
-  <si>
-    <t>300cm</t>
-  </si>
-  <si>
-    <t>400cm</t>
-  </si>
-  <si>
-    <t>600cm</t>
-  </si>
-  <si>
-    <t>800cm</t>
-  </si>
-  <si>
-    <t>1000cm</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>HTerm</t>
   </si>
   <si>
     <t>y = 1.158 * x + 13.29</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <r>
+      <t>0.9925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> * UWB_data[n] * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.205</t>
+    </r>
+  </si>
+  <si>
+    <t>y = 87.1 * x - 29.33</t>
+  </si>
+  <si>
     <t>0x2020</t>
   </si>
   <si>
+    <r>
+      <t>0.9993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> * UWB_data[n] * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.24217</t>
+    </r>
+  </si>
+  <si>
     <t>0x3E3E</t>
   </si>
   <si>
+    <r>
+      <t>1.00547</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> * UWB_data[n] * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14.103</t>
+    </r>
+  </si>
+  <si>
     <t>0x4D4D</t>
+  </si>
+  <si>
+    <r>
+      <t>1.01452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> * UWB_data[n] * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.1253</t>
+    </r>
   </si>
   <si>
     <t>0x6E6E</t>
@@ -67,13 +243,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,20 +264,381 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005CC5"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005CC5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,26 +646,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -171,7 +1022,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +1057,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,196 +1260,310 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="11" max="12" width="12.625"/>
+    <col min="14" max="16" width="12.625"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="20" max="20" width="12.625"/>
+    <col min="23" max="23" width="12.625"/>
+    <col min="26" max="26" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:23">
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
+    <row r="3" ht="14.25" spans="2:26">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>236.363636363636</v>
+      </c>
+      <c r="F3">
+        <v>4.37632135306554</v>
+      </c>
+      <c r="K3">
+        <v>491.787234042553</v>
+      </c>
+      <c r="L3">
+        <v>13.9102682701203</v>
+      </c>
+      <c r="Q3">
+        <v>712.28</v>
+      </c>
+      <c r="R3">
+        <v>36.0433333333333</v>
+      </c>
+      <c r="T3">
+        <v>918.823529411765</v>
+      </c>
+      <c r="U3">
+        <v>62.5294117647059</v>
+      </c>
+      <c r="W3">
+        <v>1180.66666666667</v>
+      </c>
+      <c r="X3">
+        <v>24.3333333333333</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>236.363636363636</v>
-      </c>
-      <c r="E3">
-        <v>4.3763213530655403</v>
-      </c>
-      <c r="J3">
-        <v>491.787234042553</v>
-      </c>
-      <c r="K3">
-        <v>13.9102682701203</v>
-      </c>
-      <c r="M3">
-        <v>712.28</v>
-      </c>
-      <c r="N3">
-        <v>36.043333333333301</v>
-      </c>
-      <c r="P3">
-        <v>918.82352941176498</v>
-      </c>
-      <c r="Q3">
-        <v>62.529411764705898</v>
-      </c>
-      <c r="S3">
-        <v>1180.6666666666699</v>
-      </c>
-      <c r="T3">
-        <v>24.3333333333333</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>11</v>
+    <row r="4" ht="62.25" spans="3:26">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.4339409209068</v>
+      </c>
+      <c r="K4">
+        <v>5.00747842864033</v>
+      </c>
+      <c r="Q4">
+        <v>7.22906801007557</v>
+      </c>
+      <c r="T4">
+        <v>9.31011112757446</v>
+      </c>
+      <c r="W4">
+        <v>11.9483291351806</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" ht="14.25" spans="2:15">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="4">
         <v>311.767441860465</v>
       </c>
-      <c r="E5">
-        <v>49.230343300110697</v>
-      </c>
-      <c r="J5">
+      <c r="F6">
+        <v>49.2303433001107</v>
+      </c>
+      <c r="K6">
         <v>502.5</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>117.455555555556</v>
       </c>
+      <c r="N6">
+        <v>587.3125</v>
+      </c>
+      <c r="O6">
+        <v>35.4475806451613</v>
+      </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>276.23255813953398</v>
-      </c>
-      <c r="E7">
-        <v>3.7065337763012201</v>
-      </c>
-      <c r="J7">
-        <v>534.73913043478296</v>
-      </c>
-      <c r="K7">
-        <v>43.352657004830903</v>
+    <row r="7" ht="62.25" spans="3:4">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:15">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>276.232558139534</v>
+      </c>
+      <c r="F9">
+        <v>3.70653377630122</v>
+      </c>
+      <c r="K9">
+        <v>534.739130434783</v>
+      </c>
+      <c r="L9">
+        <v>43.3526570048309</v>
+      </c>
+      <c r="N9">
+        <v>683.708333333333</v>
+      </c>
+      <c r="O9">
+        <v>135.69384057971</v>
+      </c>
+    </row>
+    <row r="10" ht="62.25" spans="3:4">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>273.55813953488303</v>
-      </c>
-      <c r="E9">
-        <v>9.2048726467331203</v>
-      </c>
-      <c r="J9">
-        <v>483.95652173912998</v>
-      </c>
-      <c r="K9">
-        <v>619.90917874396098</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>289.97674418604601</v>
-      </c>
-      <c r="E11">
+    <row r="12" ht="14.25" spans="2:15">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>273.558139534883</v>
+      </c>
+      <c r="F12">
+        <v>9.20487264673312</v>
+      </c>
+      <c r="K12">
+        <v>483.95652173913</v>
+      </c>
+      <c r="L12">
+        <v>619.909178743961</v>
+      </c>
+      <c r="N12">
+        <v>661.583333333333</v>
+      </c>
+      <c r="O12">
+        <v>74.8785714285714</v>
+      </c>
+    </row>
+    <row r="13" ht="62.25" spans="3:4">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="2:15">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>289.976744186046</v>
+      </c>
+      <c r="F15">
         <v>12.9756367663344</v>
       </c>
-      <c r="J11">
-        <v>471.23913043478302</v>
-      </c>
-      <c r="K11">
-        <v>7.4304347826086898</v>
+      <c r="K15">
+        <v>471.239130434783</v>
+      </c>
+      <c r="L15">
+        <v>7.43043478260869</v>
+      </c>
+      <c r="N15">
+        <v>596.5625</v>
+      </c>
+      <c r="O15">
+        <v>19.0625</v>
+      </c>
+    </row>
+    <row r="16" ht="62.25" spans="3:4">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yitong\GitHub\thesis_indoorLocalization\communicate_with_basis_station_in_matlab\calibrations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28875" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28875" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
@@ -243,18 +248,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +263,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,157 +272,6 @@
       <color rgb="FF005CC5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,7 +286,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,194 +299,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -661,251 +323,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -919,61 +339,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1260,31 +636,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="11" max="12" width="12.625"/>
-    <col min="14" max="16" width="12.625"/>
-    <col min="17" max="17" width="11.5"/>
-    <col min="20" max="20" width="12.625"/>
-    <col min="23" max="23" width="12.625"/>
-    <col min="26" max="26" width="9.14166666666667" style="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125"/>
+    <col min="11" max="12" width="12.5703125"/>
+    <col min="14" max="16" width="12.5703125"/>
+    <col min="17" max="17" width="11.42578125"/>
+    <col min="20" max="20" width="12.5703125"/>
+    <col min="23" max="23" width="12.5703125"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23">
+    <row r="1" spans="2:26">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:26">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:26">
+    <row r="3" spans="2:26">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +745,7 @@
         <v>236.363636363636</v>
       </c>
       <c r="F3">
-        <v>4.37632135306554</v>
+        <v>4.3763213530655403</v>
       </c>
       <c r="K3">
         <v>491.787234042553</v>
@@ -1381,16 +757,16 @@
         <v>712.28</v>
       </c>
       <c r="R3">
-        <v>36.0433333333333</v>
+        <v>36.043333333333301</v>
       </c>
       <c r="T3">
-        <v>918.823529411765</v>
+        <v>918.82352941176498</v>
       </c>
       <c r="U3">
-        <v>62.5294117647059</v>
+        <v>62.529411764705898</v>
       </c>
       <c r="W3">
-        <v>1180.66666666667</v>
+        <v>1180.6666666666699</v>
       </c>
       <c r="X3">
         <v>24.3333333333333</v>
@@ -1399,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="62.25" spans="3:26">
+    <row r="4" spans="2:26" ht="76.5">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -1407,16 +783,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>2.4339409209068</v>
+        <v>2.4339409209067999</v>
       </c>
       <c r="K4">
-        <v>5.00747842864033</v>
+        <v>5.0074784286403302</v>
       </c>
       <c r="Q4">
-        <v>7.22906801007557</v>
+        <v>7.2290680100755704</v>
       </c>
       <c r="T4">
-        <v>9.31011112757446</v>
+        <v>9.3101111275744604</v>
       </c>
       <c r="W4">
         <v>11.9483291351806</v>
@@ -1425,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:15">
+    <row r="6" spans="2:26">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +812,7 @@
         <v>311.767441860465</v>
       </c>
       <c r="F6">
-        <v>49.2303433001107</v>
+        <v>49.230343300110697</v>
       </c>
       <c r="K6">
         <v>502.5</v>
@@ -1448,10 +824,10 @@
         <v>587.3125</v>
       </c>
       <c r="O6">
-        <v>35.4475806451613</v>
-      </c>
-    </row>
-    <row r="7" ht="62.25" spans="3:4">
+        <v>35.447580645161302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="76.5">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:15">
+    <row r="9" spans="2:26">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1467,25 +843,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>276.232558139534</v>
+        <v>276.23255813953398</v>
       </c>
       <c r="F9">
-        <v>3.70653377630122</v>
+        <v>3.7065337763012201</v>
       </c>
       <c r="K9">
-        <v>534.739130434783</v>
+        <v>534.73913043478296</v>
       </c>
       <c r="L9">
-        <v>43.3526570048309</v>
+        <v>43.352657004830903</v>
       </c>
       <c r="N9">
-        <v>683.708333333333</v>
+        <v>683.70833333333303</v>
       </c>
       <c r="O9">
-        <v>135.69384057971</v>
-      </c>
-    </row>
-    <row r="10" ht="62.25" spans="3:4">
+        <v>135.69384057971001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="91.5">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:15">
+    <row r="12" spans="2:26">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1501,25 +877,31 @@
         <v>12</v>
       </c>
       <c r="E12" s="4">
-        <v>273.558139534883</v>
+        <v>273.55813953488303</v>
       </c>
       <c r="F12">
-        <v>9.20487264673312</v>
+        <v>9.2048726467331203</v>
+      </c>
+      <c r="H12" s="4">
+        <v>317.622641509434</v>
+      </c>
+      <c r="I12">
+        <v>6.6943396226415102</v>
       </c>
       <c r="K12">
-        <v>483.95652173913</v>
+        <v>483.95652173912998</v>
       </c>
       <c r="L12">
-        <v>619.909178743961</v>
+        <v>619.90917874396098</v>
       </c>
       <c r="N12">
-        <v>661.583333333333</v>
+        <v>661.58333333333303</v>
       </c>
       <c r="O12">
-        <v>74.8785714285714</v>
-      </c>
-    </row>
-    <row r="13" ht="62.25" spans="3:4">
+        <v>74.878571428571405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="91.5">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:15">
+    <row r="15" spans="2:26">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1535,16 +917,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>289.976744186046</v>
+        <v>289.97674418604601</v>
       </c>
       <c r="F15">
         <v>12.9756367663344</v>
       </c>
       <c r="K15">
-        <v>471.239130434783</v>
+        <v>471.23913043478302</v>
       </c>
       <c r="L15">
-        <v>7.43043478260869</v>
+        <v>7.4304347826086898</v>
       </c>
       <c r="N15">
         <v>596.5625</v>
@@ -1553,7 +935,7 @@
         <v>19.0625</v>
       </c>
     </row>
-    <row r="16" ht="62.25" spans="3:4">
+    <row r="16" spans="2:26" ht="76.5">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1562,8 +944,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28875" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28875" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="12.07.2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
@@ -398,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -814,6 +815,12 @@
       <c r="F6">
         <v>49.230343300110697</v>
       </c>
+      <c r="H6">
+        <v>349.26373626373601</v>
+      </c>
+      <c r="I6">
+        <v>4.3963369963369896</v>
+      </c>
       <c r="K6">
         <v>502.5</v>
       </c>
@@ -947,4 +954,189 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="77.25" thickBot="1">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="H6">
+        <v>349.26373626373601</v>
+      </c>
+      <c r="I6">
+        <v>4.3963369963369896</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="77.25" thickBot="1">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:24" ht="92.25" thickBot="1">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:24" ht="92.25" thickBot="1">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:24" ht="77.25" thickBot="1">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -287,7 +287,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,6 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -952,7 +959,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -961,7 +968,7 @@
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1051,6 +1058,30 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="H3">
+        <v>304.71764705882401</v>
+      </c>
+      <c r="I3">
+        <v>14.7288515406162</v>
+      </c>
+      <c r="K3">
+        <v>390.29927007299301</v>
+      </c>
+      <c r="L3">
+        <v>20.064190639759602</v>
+      </c>
+      <c r="N3">
+        <v>523.25</v>
+      </c>
+      <c r="O3">
+        <v>232.210526315789</v>
+      </c>
+      <c r="Q3">
+        <v>677.27272727272702</v>
+      </c>
+      <c r="R3">
+        <v>360.01671891326998</v>
+      </c>
     </row>
     <row r="4" spans="2:24" ht="77.25" thickBot="1">
       <c r="C4" t="s">
@@ -1061,6 +1092,14 @@
       </c>
       <c r="E4" s="3"/>
     </row>
+    <row r="5" spans="2:24">
+      <c r="H5" s="6">
+        <v>349.26373626373601</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4.3963369963369896</v>
+      </c>
+    </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1">
       <c r="B6" t="s">
         <v>17</v>
@@ -1070,10 +1109,28 @@
       </c>
       <c r="E6" s="4"/>
       <c r="H6">
-        <v>349.26373626373601</v>
+        <v>341.54117647058803</v>
       </c>
       <c r="I6">
-        <v>4.3963369963369896</v>
+        <v>19.679831932773101</v>
+      </c>
+      <c r="K6">
+        <v>444.86029411764702</v>
+      </c>
+      <c r="L6">
+        <v>6.1951525054466297</v>
+      </c>
+      <c r="N6">
+        <v>557.88118811881202</v>
+      </c>
+      <c r="O6">
+        <v>158.505742574257</v>
+      </c>
+      <c r="Q6">
+        <v>658.22727272727298</v>
+      </c>
+      <c r="R6">
+        <v>9.0282131661441891</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="77.25" thickBot="1">
@@ -1084,6 +1141,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="2:24">
+      <c r="H8" s="6">
+        <v>252.963636363636</v>
+      </c>
+      <c r="I8" s="6">
+        <v>14.294949494949501</v>
+      </c>
+    </row>
     <row r="9" spans="2:24" ht="15.75" thickBot="1">
       <c r="B9" t="s">
         <v>19</v>
@@ -1092,6 +1157,30 @@
         <v>12</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="H9">
+        <v>293.917647058824</v>
+      </c>
+      <c r="I9">
+        <v>35.385994397759099</v>
+      </c>
+      <c r="K9">
+        <v>398.49635036496397</v>
+      </c>
+      <c r="L9">
+        <v>108.663589523401</v>
+      </c>
+      <c r="N9">
+        <v>499.29113924050603</v>
+      </c>
+      <c r="O9">
+        <v>17.2090230444661</v>
+      </c>
+      <c r="Q9">
+        <v>603.17045454545496</v>
+      </c>
+      <c r="R9">
+        <v>7.6142894461859996</v>
+      </c>
     </row>
     <row r="10" spans="2:24" ht="92.25" thickBot="1">
       <c r="C10" t="s">
@@ -1101,6 +1190,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="2:24">
+      <c r="H11" s="6">
+        <v>317.622641509434</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6.6943396226415102</v>
+      </c>
+    </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
       <c r="B12" t="s">
         <v>21</v>
@@ -1109,7 +1206,30 @@
         <v>12</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12">
+        <v>313.058823529412</v>
+      </c>
+      <c r="I12">
+        <v>10.3179271708683</v>
+      </c>
+      <c r="K12">
+        <v>425.14598540146</v>
+      </c>
+      <c r="L12">
+        <v>10.493237440961799</v>
+      </c>
+      <c r="N12">
+        <v>530.65909090909099</v>
+      </c>
+      <c r="O12">
+        <v>16.165336571825101</v>
+      </c>
+      <c r="Q12">
+        <v>640.73863636363603</v>
+      </c>
+      <c r="R12">
+        <v>6.28722570532915</v>
+      </c>
     </row>
     <row r="13" spans="2:24" ht="92.25" thickBot="1">
       <c r="C13" t="s">
@@ -1119,6 +1239,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="2:24">
+      <c r="H14" s="6">
+        <v>315.019230769231</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8.2937405731523395</v>
+      </c>
+    </row>
     <row r="15" spans="2:24" ht="15.75" thickBot="1">
       <c r="B15" t="s">
         <v>23</v>
@@ -1127,6 +1255,30 @@
         <v>12</v>
       </c>
       <c r="E15" s="4"/>
+      <c r="H15">
+        <v>314.35294117647101</v>
+      </c>
+      <c r="I15">
+        <v>12.46918767507</v>
+      </c>
+      <c r="K15">
+        <v>419.85401459854</v>
+      </c>
+      <c r="L15">
+        <v>10.2579433233147</v>
+      </c>
+      <c r="N15">
+        <v>521.65384615384596</v>
+      </c>
+      <c r="O15">
+        <v>9.9435564435564494</v>
+      </c>
+      <c r="Q15">
+        <v>624.17045454545496</v>
+      </c>
+      <c r="R15">
+        <v>8.8786572622779705</v>
+      </c>
     </row>
     <row r="16" spans="2:24" ht="77.25" thickBot="1">
       <c r="C16" t="s">

--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>0x6E6E</t>
+  </si>
+  <si>
+    <t>trimmean(10)</t>
+  </si>
+  <si>
+    <t>mad(0)</t>
+  </si>
+  <si>
+    <t>700cm</t>
+  </si>
+  <si>
+    <t>f(x) = p1*x + p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1 =       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2 =        </t>
   </si>
 </sst>
 </file>
@@ -287,7 +305,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +324,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,11 +366,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,7 +396,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -652,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -965,330 +1026,626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z16"/>
+  <dimension ref="B1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="8.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
+    <col min="10" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="3.42578125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="6"/>
+    <col min="15" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="3.7109375" style="6" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="6"/>
+    <col min="20" max="21" width="9.140625" style="8"/>
+    <col min="22" max="22" width="2.85546875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="6"/>
+    <col min="25" max="26" width="9.140625" style="8"/>
+    <col min="27" max="27" width="5" style="13" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="13"/>
+    <col min="29" max="29" width="9.140625" style="6"/>
+    <col min="30" max="31" width="9.140625" style="14"/>
+    <col min="32" max="32" width="5" style="6" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" style="6"/>
+    <col min="35" max="35" width="1.5703125" style="6" customWidth="1"/>
+    <col min="36" max="37" width="9.140625" style="6"/>
+    <col min="38" max="38" width="1.140625" style="6" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="7"/>
+    <col min="40" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:40">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:40">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" t="s">
+      <c r="C2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AC2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AH2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3">
-        <v>304.71764705882401</v>
-      </c>
-      <c r="I3">
-        <v>14.7288515406162</v>
-      </c>
-      <c r="K3">
-        <v>390.29927007299301</v>
-      </c>
-      <c r="L3">
-        <v>20.064190639759602</v>
-      </c>
-      <c r="N3">
-        <v>523.25</v>
-      </c>
-      <c r="O3">
-        <v>232.210526315789</v>
-      </c>
-      <c r="Q3">
-        <v>677.27272727272702</v>
-      </c>
-      <c r="R3">
-        <v>360.01671891326998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" ht="77.25" thickBot="1">
-      <c r="C4" t="s">
+      <c r="H3" s="6">
+        <v>300.47301587301598</v>
+      </c>
+      <c r="I3" s="6">
+        <v>20.281912850065702</v>
+      </c>
+      <c r="J3" s="8">
+        <v>300.44169611307399</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3.6247518266565701</v>
+      </c>
+      <c r="M3" s="6">
+        <v>407.55657492354698</v>
+      </c>
+      <c r="N3" s="6">
+        <v>99.732628985955301</v>
+      </c>
+      <c r="O3" s="8">
+        <v>408.06462585034001</v>
+      </c>
+      <c r="P3" s="8">
+        <v>7.78219192174243</v>
+      </c>
+      <c r="R3" s="6">
+        <v>518.29591836734699</v>
+      </c>
+      <c r="S3" s="6">
+        <v>52.242777179014404</v>
+      </c>
+      <c r="T3" s="8">
+        <v>517.46981132075496</v>
+      </c>
+      <c r="U3" s="8">
+        <v>4.0200263778981098</v>
+      </c>
+      <c r="W3" s="6">
+        <v>632.57894736842104</v>
+      </c>
+      <c r="X3" s="6">
+        <v>7.96976483762597</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>632.576470588235</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2.2260387811634401</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>717.92</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>5.5610810810810802</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>717.89552238806004</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>1.8474666666666699</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="76.5">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="H5" s="6">
+      <c r="E4" s="10"/>
+      <c r="H4" s="6">
+        <v>3.07749819748111</v>
+      </c>
+      <c r="O4" s="6">
+        <v>4.1618602105793503</v>
+      </c>
+      <c r="T4" s="6">
+        <v>5.2641794589420696</v>
+      </c>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="6">
+        <v>6.4239442881612101</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>89.73</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="H5" s="11">
         <v>349.26373626373601</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="11">
         <v>4.3963369963369896</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B6" t="s">
+    <row r="6" spans="2:40">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="H6">
-        <v>341.54117647058803</v>
-      </c>
-      <c r="I6">
-        <v>19.679831932773101</v>
-      </c>
-      <c r="K6">
-        <v>444.86029411764702</v>
-      </c>
-      <c r="L6">
-        <v>6.1951525054466297</v>
-      </c>
-      <c r="N6">
-        <v>557.88118811881202</v>
-      </c>
-      <c r="O6">
-        <v>158.505742574257</v>
-      </c>
-      <c r="Q6">
-        <v>658.22727272727298</v>
-      </c>
-      <c r="R6">
-        <v>9.0282131661441891</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="77.25" thickBot="1">
-      <c r="C7" t="s">
+      <c r="E6" s="12"/>
+      <c r="H6" s="6">
+        <v>324.00623052959497</v>
+      </c>
+      <c r="I6" s="6">
+        <v>119.84371105919</v>
+      </c>
+      <c r="J6" s="8">
+        <v>323.30449826989599</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9.2864199687503408</v>
+      </c>
+      <c r="M6" s="6">
+        <v>437.18320610686999</v>
+      </c>
+      <c r="N6" s="6">
+        <v>19.388402549197998</v>
+      </c>
+      <c r="O6" s="8">
+        <v>436.89303904923599</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3.3383369267525902</v>
+      </c>
+      <c r="R6" s="6">
+        <v>550.568253968254</v>
+      </c>
+      <c r="S6" s="6">
+        <v>38.8180684886566</v>
+      </c>
+      <c r="T6" s="8">
+        <v>549.65669014084494</v>
+      </c>
+      <c r="U6" s="8">
+        <v>3.00384983623076</v>
+      </c>
+      <c r="W6" s="6">
+        <v>653.87368421052599</v>
+      </c>
+      <c r="X6" s="6">
+        <v>3.21791713325868</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>653.94117647058795</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1.3990027700831</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>744.96385542168696</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>8.3523361739641508</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>744.98666666666702</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>2.1605457976484299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="76.5">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="H8" s="6">
+      <c r="AM7" s="7">
+        <v>90.42</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>5.5309999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="H8" s="11">
         <v>252.963636363636</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="11">
         <v>14.294949494949501</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B9" t="s">
+    <row r="9" spans="2:40">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="H9">
-        <v>293.917647058824</v>
-      </c>
-      <c r="I9">
-        <v>35.385994397759099</v>
-      </c>
-      <c r="K9">
-        <v>398.49635036496397</v>
-      </c>
-      <c r="L9">
-        <v>108.663589523401</v>
-      </c>
-      <c r="N9">
-        <v>499.29113924050603</v>
-      </c>
-      <c r="O9">
-        <v>17.2090230444661</v>
-      </c>
-      <c r="Q9">
-        <v>603.17045454545496</v>
-      </c>
-      <c r="R9">
-        <v>7.6142894461859996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="92.25" thickBot="1">
-      <c r="C10" t="s">
+      <c r="E9" s="12"/>
+      <c r="H9" s="6">
+        <v>287.35135135135101</v>
+      </c>
+      <c r="I9" s="6">
+        <v>59.062574438845601</v>
+      </c>
+      <c r="J9" s="8">
+        <v>287.327067669173</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6.3175675675675498</v>
+      </c>
+      <c r="M9" s="6">
+        <v>403.14150943396203</v>
+      </c>
+      <c r="N9" s="6">
+        <v>90.896478977863694</v>
+      </c>
+      <c r="O9" s="8">
+        <v>402.81818181818198</v>
+      </c>
+      <c r="P9" s="8">
+        <v>7.1394921086982199</v>
+      </c>
+      <c r="R9" s="6">
+        <v>501.72805507745301</v>
+      </c>
+      <c r="S9" s="6">
+        <v>13.591435693513001</v>
+      </c>
+      <c r="T9" s="8">
+        <v>501.74187380497102</v>
+      </c>
+      <c r="U9" s="8">
+        <v>2.9602471849532401</v>
+      </c>
+      <c r="W9" s="6">
+        <v>618.66265060241005</v>
+      </c>
+      <c r="X9" s="6">
+        <v>5.0311489861886596</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>618.62666666666701</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>1.7953258818406199</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>716.58888888888896</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>7.6830212234706501</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>716.52439024390196</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>2.1967901234567901</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" ht="91.5">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="H11" s="6">
+      <c r="AM10" s="7">
+        <v>91.91</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="H11" s="11">
         <v>317.622641509434</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="11">
         <v>6.6943396226415102</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B12" t="s">
+    <row r="12" spans="2:40">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="H12">
-        <v>313.058823529412</v>
-      </c>
-      <c r="I12">
-        <v>10.3179271708683</v>
-      </c>
-      <c r="K12">
-        <v>425.14598540146</v>
-      </c>
-      <c r="L12">
-        <v>10.493237440961799</v>
-      </c>
-      <c r="N12">
-        <v>530.65909090909099</v>
-      </c>
-      <c r="O12">
-        <v>16.165336571825101</v>
-      </c>
-      <c r="Q12">
-        <v>640.73863636363603</v>
-      </c>
-      <c r="R12">
-        <v>6.28722570532915</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="92.25" thickBot="1">
-      <c r="C13" t="s">
+      <c r="E12" s="12"/>
+      <c r="H12" s="6">
+        <v>307.99256505576199</v>
+      </c>
+      <c r="I12" s="6">
+        <v>24.977556455639998</v>
+      </c>
+      <c r="J12" s="8">
+        <v>308.05349794238703</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4.0149528060695499</v>
+      </c>
+      <c r="M12" s="6">
+        <v>421.58470764617698</v>
+      </c>
+      <c r="N12" s="6">
+        <v>11.0299760029894</v>
+      </c>
+      <c r="O12" s="8">
+        <v>421.472545757072</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2.6066232251190602</v>
+      </c>
+      <c r="R12" s="6">
+        <v>525.31578947368405</v>
+      </c>
+      <c r="S12" s="6">
+        <v>21.6169942929615</v>
+      </c>
+      <c r="T12" s="8">
+        <v>525.110183639399</v>
+      </c>
+      <c r="U12" s="8">
+        <v>3.6492283339928702</v>
+      </c>
+      <c r="W12" s="6">
+        <v>649.45744680851101</v>
+      </c>
+      <c r="X12" s="6">
+        <v>7.6917181423015402</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>649.46428571428601</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2.2987777274785</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>738.1</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>3.7089887640449302</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>738.19512195122002</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" ht="91.5">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="H14" s="6">
+      <c r="AM13" s="7">
+        <v>89.84</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="H14" s="11">
         <v>315.019230769231</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="11">
         <v>8.2937405731523395</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B15" t="s">
+    <row r="15" spans="2:40">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="H15">
-        <v>314.35294117647101</v>
-      </c>
-      <c r="I15">
-        <v>12.46918767507</v>
-      </c>
-      <c r="K15">
-        <v>419.85401459854</v>
-      </c>
-      <c r="L15">
-        <v>10.2579433233147</v>
-      </c>
-      <c r="N15">
-        <v>521.65384615384596</v>
-      </c>
-      <c r="O15">
-        <v>9.9435564435564494</v>
-      </c>
-      <c r="Q15">
-        <v>624.17045454545496</v>
-      </c>
-      <c r="R15">
-        <v>8.8786572622779705</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="77.25" thickBot="1">
-      <c r="C16" t="s">
+      <c r="E15" s="12"/>
+      <c r="H15" s="6">
+        <v>310.52012383900899</v>
+      </c>
+      <c r="I15" s="6">
+        <v>16.567140357287101</v>
+      </c>
+      <c r="J15" s="8">
+        <v>310.45017182130601</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3.2194500091058198</v>
+      </c>
+      <c r="M15" s="6">
+        <v>418.446153846154</v>
+      </c>
+      <c r="N15" s="6">
+        <v>9.0487139978665603</v>
+      </c>
+      <c r="O15" s="8">
+        <v>418.53924914675798</v>
+      </c>
+      <c r="P15" s="8">
+        <v>2.2939644970414199</v>
+      </c>
+      <c r="R15" s="6">
+        <v>524.15608919382498</v>
+      </c>
+      <c r="S15" s="6">
+        <v>7.3072094215840799</v>
+      </c>
+      <c r="T15" s="8">
+        <v>524.299047619048</v>
+      </c>
+      <c r="U15" s="8">
+        <v>2.12688848418159</v>
+      </c>
+      <c r="W15" s="6">
+        <v>638.13684210526299</v>
+      </c>
+      <c r="X15" s="6">
+        <v>3.2257558790593501</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>638.21176470588205</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1.39767313019391</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>749.25806451612902</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>2.78476996298255</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>717.92</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>5.5610810810810802</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="76.5">
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>91.74</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>15.89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/calibration_results.xlsx
@@ -1029,7 +1029,7 @@
   <dimension ref="B1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1263,6 +1263,9 @@
       <c r="H4" s="6">
         <v>3.07749819748111</v>
       </c>
+      <c r="J4" s="8">
+        <v>3.07749819748111</v>
+      </c>
       <c r="O4" s="6">
         <v>4.1618602105793503</v>
       </c>
